--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/DELAWARE_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/DELAWARE_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Cristobal De Las Casas</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Union Juarez</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Coyame Del Sotol</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Panuco De Coronado</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Almoloya De Juarez</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Atizapan</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Atizapan De Zaragoza</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Calimaya</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Coacalco De Berriozabal</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Cocotitlan</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Cuautitlan</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Ixtapan Del Oro</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Melchor Ocampo</t>
@@ -1600,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Nicolas Romero</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Ocoyoacac</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>San Mateo Atenco</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>San Simon De Guerrero</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tepetlaoxtoc</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tepotzotlan</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tequixquiac</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Texcaltitlan</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Zacazonapan</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Zumpahuacan</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Acambaro</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Cueramaro</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Jerecuaro</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Moroleon</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2416,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2429,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -2442,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -2455,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -2468,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2481,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -2494,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -2507,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2520,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Azoyu</t>
@@ -2533,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -2546,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Buenavista De Cuellar</t>
@@ -2559,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Huamuxtitlan</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtemoc</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>La Union De Isidoro Montes De Oca</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Metlatonoc</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Taxco De Alarcon</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Zirandaro</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Chapulhuacan</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Nopala De Villagran</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3258,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -3271,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3284,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -3297,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3310,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Mascota</t>
@@ -3323,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3336,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>San Martin De Bolaños</t>
@@ -3349,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -3388,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3401,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3414,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3445,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -3458,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Caracuaro</t>
@@ -3471,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -3484,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -3497,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -3510,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Erongaricuaro</t>
@@ -3523,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3536,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -3549,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -3562,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -3575,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3588,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -3601,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3614,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Mugica</t>
@@ -3627,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -3640,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Nocupetaro</t>
@@ -3653,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3666,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Panindicuaro</t>
@@ -3679,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -3692,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -3705,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -3718,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -3731,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tarimbaro</t>
@@ -3744,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolas Romero</t>
@@ -3757,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -3770,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -3783,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3796,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Yurecuaro</t>
@@ -3809,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3822,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3835,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -3848,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3879,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -3892,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3905,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3918,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3931,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -3944,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3957,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -3970,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -3983,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -3996,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Temoac</t>
@@ -4009,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -4022,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Tlaltizapan</t>
@@ -4035,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -4048,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Tlayacapan</t>
@@ -4061,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -4074,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -4087,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -4100,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4131,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Ixtlan Del Rio</t>
@@ -4144,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Jala</t>
@@ -4157,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -4170,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -4183,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -4196,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4209,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4240,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4253,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4284,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -4297,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -4310,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -4323,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlan</t>
@@ -4336,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Matias Romero Avendaño</t>
@@ -4349,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -4362,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4375,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>San Andres Dinicuiti</t>
@@ -4388,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -4401,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>San Juan Mixtepec - Distr. 08 -</t>
@@ -4414,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>San Luis Amatlan</t>
@@ -4427,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>San Miguel Amatitlan</t>
@@ -4440,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>San Miguel Tequixtepec</t>
@@ -4453,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -4466,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>San Pedro Yolox</t>
@@ -4479,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>San Vicente Lachixio</t>
@@ -4492,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -4505,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Santa Maria Ecatepec</t>
@@ -4518,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Santa Maria Jacatepec</t>
@@ -4531,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Santa Maria Petapa</t>
@@ -4544,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4557,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -4570,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -4583,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -4596,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Tezoatlan De Segura Y Luna</t>
@@ -4609,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Valerio Trujano</t>
@@ -4622,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4653,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Acatlan</t>
@@ -4666,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -4679,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4692,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -4705,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -4718,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -4731,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4744,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Chila De La Sal</t>
@@ -4757,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -4770,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -4783,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Coxcatlan</t>
@@ -4796,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -4809,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -4822,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Epatlan</t>
@@ -4835,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -4848,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Francisco Z. Mena</t>
@@ -4861,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4874,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -4887,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -4900,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -4913,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Huehuetlan El Chico</t>
@@ -4926,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Huehuetlan El Grande</t>
@@ -4939,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4952,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -4965,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -4978,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -4991,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -5004,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Naupan</t>
@@ -5017,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Oriental</t>
@@ -5030,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5043,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -5056,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -5069,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -5082,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>San Jeronimo Xayacatlan</t>
@@ -5095,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -5108,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -5160,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Teopantlan</t>
@@ -5173,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -5186,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -5199,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -5212,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -5225,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Zoquitlan</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5321,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Colon</t>
@@ -5334,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -5347,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5360,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -5373,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5404,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -5417,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Ciudad Del Maiz</t>
@@ -5430,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -5443,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -5456,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5469,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -5482,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -5495,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -5508,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>San Nicolas Tolentino</t>
@@ -5521,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -5534,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -5547,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Tampamolon Corona</t>
@@ -5560,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -5573,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -5586,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -5599,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5630,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -5643,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -5656,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -5669,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5700,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -5713,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Cunduacan</t>
@@ -5726,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -5739,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -5752,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5783,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -5796,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -5809,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Jaumave</t>
@@ -5822,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Jimenez</t>
@@ -5835,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5848,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -5861,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Rio Bravo</t>
@@ -5874,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -5887,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -5900,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -5913,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5944,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -5957,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -5970,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -5983,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -5996,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Totolac</t>
@@ -6009,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -6022,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -6035,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Yauhquemecan</t>
@@ -6048,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6079,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Acula</t>
@@ -6092,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutierrez Barrios</t>
@@ -6105,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -6118,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Apazapan</t>
@@ -6131,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Boca Del Rio</t>
@@ -6144,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -6157,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6170,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -6183,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -6196,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Hidalgotitlan</t>
@@ -6209,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -6222,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -6235,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Ixhuatlan Del Sureste</t>
@@ -6248,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -6261,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Jaltipan</t>
@@ -6274,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Juan Rodriguez Clara</t>
@@ -6287,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -6300,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -6313,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -6326,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -6339,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -6352,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Medellin</t>
@@ -6365,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -6378,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -6391,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Nanchital De Lazaro Cardenas Del Rio</t>
@@ -6404,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -6417,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6430,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6443,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -6456,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -6469,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -6482,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -6495,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -6508,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Tamiahua</t>
@@ -6521,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -6534,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -6547,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -6560,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6573,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -6586,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6599,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -6612,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -6625,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Ursulo Galvan</t>
@@ -6638,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -6651,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -6664,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -6677,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6708,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6739,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>General Francisco R. Murguia</t>
@@ -6752,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -6765,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -6778,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -6791,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -6804,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -6817,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Total</t>
